--- a/data/trans_orig/P68-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P68-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>42843</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32011</v>
+        <v>31206</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55837</v>
+        <v>55049</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2604463686268452</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1945928689058916</v>
+        <v>0.1897015720071334</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3394372412054567</v>
+        <v>0.3346418906450562</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -765,19 +765,19 @@
         <v>28619</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20610</v>
+        <v>19738</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38792</v>
+        <v>38009</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2602033242568361</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1873807965371355</v>
+        <v>0.1794593496904697</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3526891282909113</v>
+        <v>0.3455732938419507</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -786,19 +786,19 @@
         <v>71463</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58012</v>
+        <v>56595</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87893</v>
+        <v>87410</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2603489804366462</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2113447956967309</v>
+        <v>0.2061839350152245</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3202060646629235</v>
+        <v>0.3184466558624844</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>121657</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>108663</v>
+        <v>109451</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>132489</v>
+        <v>133294</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7395536313731548</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6605627587945433</v>
+        <v>0.6653581093549438</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8054071310941084</v>
+        <v>0.8102984279928666</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -836,19 +836,19 @@
         <v>81369</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>71196</v>
+        <v>71979</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>89378</v>
+        <v>90250</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7397966757431639</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6473108717090884</v>
+        <v>0.6544267061580493</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8126192034628644</v>
+        <v>0.8205406503095302</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>189</v>
@@ -857,19 +857,19 @@
         <v>203025</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>186595</v>
+        <v>187078</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>216476</v>
+        <v>217893</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7396510195633539</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6797939353370765</v>
+        <v>0.6815533441375156</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7886552043032691</v>
+        <v>0.7938160649847755</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>72397</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57104</v>
+        <v>57898</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89152</v>
+        <v>89013</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2676585667000275</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2111209261225874</v>
+        <v>0.2140571822574686</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3296050846654944</v>
+        <v>0.3290908568269049</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -982,19 +982,19 @@
         <v>32688</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23234</v>
+        <v>23244</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43944</v>
+        <v>42403</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2476117429786427</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1760005809924374</v>
+        <v>0.1760776246608537</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3328785214367502</v>
+        <v>0.3212076223260982</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -1003,19 +1003,19 @@
         <v>105084</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>87996</v>
+        <v>88401</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>124202</v>
+        <v>124846</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2610834882623781</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2186277829456216</v>
+        <v>0.219634252047033</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3085809514600921</v>
+        <v>0.3101829358664626</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>198084</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>181329</v>
+        <v>181468</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>213377</v>
+        <v>212583</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7323414332999725</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6703949153345056</v>
+        <v>0.6709091431730952</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7888790738774126</v>
+        <v>0.7859428177425316</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>97</v>
@@ -1053,19 +1053,19 @@
         <v>99324</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>88068</v>
+        <v>89609</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>108778</v>
+        <v>108768</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7523882570213573</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6671214785632499</v>
+        <v>0.678792377673902</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8239994190075626</v>
+        <v>0.8239223753391463</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>283</v>
@@ -1074,19 +1074,19 @@
         <v>297409</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>278291</v>
+        <v>277647</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>314497</v>
+        <v>314092</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7389165117376219</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6914190485399083</v>
+        <v>0.6898170641335375</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7813722170543784</v>
+        <v>0.7803657479529671</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>36615</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26704</v>
+        <v>25877</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48611</v>
+        <v>48604</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2096480856907068</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1529001431889047</v>
+        <v>0.1481674877500652</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2783328649446466</v>
+        <v>0.2782954976679211</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1199,19 +1199,19 @@
         <v>21724</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14739</v>
+        <v>14349</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29999</v>
+        <v>30509</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2318866722546468</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1573293155405886</v>
+        <v>0.1531644173206151</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3202111095358224</v>
+        <v>0.3256596015509423</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -1220,19 +1220,19 @@
         <v>58339</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44985</v>
+        <v>46279</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73745</v>
+        <v>73353</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2174123809444389</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1676465388990186</v>
+        <v>0.1724686697240785</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2748236252677843</v>
+        <v>0.2733639995027081</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>138034</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>126038</v>
+        <v>126045</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>147945</v>
+        <v>148772</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7903519143092932</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7216671350553533</v>
+        <v>0.7217045023320792</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8470998568110952</v>
+        <v>0.8518325122499349</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>71</v>
@@ -1270,19 +1270,19 @@
         <v>71961</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>63686</v>
+        <v>63176</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>78946</v>
+        <v>79336</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7681133277453532</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.679788890464178</v>
+        <v>0.6743403984490579</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8426706844594115</v>
+        <v>0.8468355826793861</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>202</v>
@@ -1291,19 +1291,19 @@
         <v>209996</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>194590</v>
+        <v>194982</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>223350</v>
+        <v>222056</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7825876190555611</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7251763747322156</v>
+        <v>0.726636000497292</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8323534611009814</v>
+        <v>0.8275313302759216</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>58323</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45175</v>
+        <v>45606</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72414</v>
+        <v>72049</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2618765307170202</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2028403805023977</v>
+        <v>0.2047768603573446</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3251442784617086</v>
+        <v>0.3235075070689666</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -1416,19 +1416,19 @@
         <v>22705</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15371</v>
+        <v>15111</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33850</v>
+        <v>32883</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1686548312245156</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1141772043300012</v>
+        <v>0.1122404198013422</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2514322418671114</v>
+        <v>0.2442498613694879</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>79</v>
@@ -1437,19 +1437,19 @@
         <v>81029</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66200</v>
+        <v>67001</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>98135</v>
+        <v>98009</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2267554287643607</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1852567073828559</v>
+        <v>0.1874982280164332</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2746258991273803</v>
+        <v>0.2742723075141034</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>164390</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>150299</v>
+        <v>150664</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>177538</v>
+        <v>177107</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7381234692829798</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6748557215382912</v>
+        <v>0.6764924929310326</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7971596194976023</v>
+        <v>0.7952231396426553</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>113</v>
@@ -1487,19 +1487,19 @@
         <v>111922</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>100777</v>
+        <v>101744</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>119256</v>
+        <v>119516</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8313451687754844</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7485677581328886</v>
+        <v>0.7557501386305121</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8858227956699989</v>
+        <v>0.8877595801986579</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>275</v>
@@ -1508,19 +1508,19 @@
         <v>276312</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>259206</v>
+        <v>259332</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>291141</v>
+        <v>290340</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7732445712356393</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7253741008726196</v>
+        <v>0.7257276924858964</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8147432926171441</v>
+        <v>0.8125017719835668</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>22955</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14749</v>
+        <v>15061</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33372</v>
+        <v>32792</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2077293593761364</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1334690989605382</v>
+        <v>0.1362946205701794</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.302004122004099</v>
+        <v>0.2967513848413414</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1633,19 +1633,19 @@
         <v>6970</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2964</v>
+        <v>3020</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13385</v>
+        <v>12734</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1428277604697114</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06072557350465269</v>
+        <v>0.06188000410410242</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2742713975843128</v>
+        <v>0.2609317134270486</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -1654,19 +1654,19 @@
         <v>29925</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20286</v>
+        <v>21018</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40771</v>
+        <v>42387</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1878470832738864</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.127339741450184</v>
+        <v>0.1319385752329429</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2559329670053775</v>
+        <v>0.2660791652827612</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>87547</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>77130</v>
+        <v>77710</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95753</v>
+        <v>95441</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7922706406238637</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6979958779959006</v>
+        <v>0.7032486151586584</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8665309010394618</v>
+        <v>0.8637053794298205</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>39</v>
@@ -1704,19 +1704,19 @@
         <v>41832</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35417</v>
+        <v>36068</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45838</v>
+        <v>45782</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8571722395302886</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.725728602415687</v>
+        <v>0.7390682865729522</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9392744264953473</v>
+        <v>0.9381199958958977</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>126</v>
@@ -1725,19 +1725,19 @@
         <v>129379</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>118533</v>
+        <v>116917</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>139018</v>
+        <v>138286</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8121529167261136</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7440670329946225</v>
+        <v>0.7339208347172407</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.872660258549816</v>
+        <v>0.8680614247670575</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>41809</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31418</v>
+        <v>31282</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53282</v>
+        <v>53704</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.271572539250759</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2040732533914495</v>
+        <v>0.2031948750801643</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3460957545712346</v>
+        <v>0.3488309983756754</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -1850,19 +1850,19 @@
         <v>14094</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7884</v>
+        <v>8098</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21122</v>
+        <v>22071</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1738363408153064</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09724466531055202</v>
+        <v>0.09988723148660653</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2605183420254801</v>
+        <v>0.27222967621716</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>54</v>
@@ -1871,19 +1871,19 @@
         <v>55903</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44066</v>
+        <v>43752</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69462</v>
+        <v>70050</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.237857673582608</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1874927182685776</v>
+        <v>0.1861557108623952</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2955491963195007</v>
+        <v>0.2980514469642966</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>112144</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>100671</v>
+        <v>100249</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>122535</v>
+        <v>122671</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.728427460749241</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6539042454287655</v>
+        <v>0.651169001624325</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7959267466085505</v>
+        <v>0.7968051249198358</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>64</v>
@@ -1921,19 +1921,19 @@
         <v>66981</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>59953</v>
+        <v>59004</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>73191</v>
+        <v>72977</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8261636591846936</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7394816579745199</v>
+        <v>0.7277703237828392</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.902755334689448</v>
+        <v>0.9001127685133933</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>172</v>
@@ -1942,19 +1942,19 @@
         <v>179125</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>165566</v>
+        <v>164978</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>190962</v>
+        <v>191276</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.762142326417392</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7044508036804993</v>
+        <v>0.7019485530357034</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8125072817314223</v>
+        <v>0.8138442891376048</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>87626</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>72051</v>
+        <v>71423</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>106412</v>
+        <v>104399</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.262799297995742</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2160865826065433</v>
+        <v>0.2142027257929816</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3191373371212624</v>
+        <v>0.3131019304771168</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -2067,19 +2067,19 @@
         <v>43535</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>32800</v>
+        <v>32653</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>56494</v>
+        <v>56627</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2436543376262822</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1835731262869962</v>
+        <v>0.1827531864770416</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3161826898608331</v>
+        <v>0.3169307270494842</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>126</v>
@@ -2088,19 +2088,19 @@
         <v>131161</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>109301</v>
+        <v>112295</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>150863</v>
+        <v>151404</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2561196591731635</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2134332657614892</v>
+        <v>0.2192795117693526</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2945909711198134</v>
+        <v>0.2956486245276059</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>245809</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>227023</v>
+        <v>229036</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>261384</v>
+        <v>262012</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7372007020042579</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6808626628787381</v>
+        <v>0.6868980695228833</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.783913417393457</v>
+        <v>0.7857972742070184</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>123</v>
@@ -2138,19 +2138,19 @@
         <v>135139</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>122180</v>
+        <v>122047</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>145874</v>
+        <v>146021</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7563456623737178</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6838173101391668</v>
+        <v>0.6830692729505159</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8164268737130038</v>
+        <v>0.8172468135229584</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>355</v>
@@ -2159,19 +2159,19 @@
         <v>380948</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>361246</v>
+        <v>360705</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>402808</v>
+        <v>399814</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7438803408268365</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7054090288801866</v>
+        <v>0.7043513754723947</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7865667342385108</v>
+        <v>0.7807204882306474</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>108915</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>92007</v>
+        <v>91249</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>127138</v>
+        <v>128323</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2377213262323265</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2008186520658479</v>
+        <v>0.1991637536960092</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2774951803592651</v>
+        <v>0.2800821704684777</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -2284,19 +2284,19 @@
         <v>49786</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38114</v>
+        <v>38046</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>63188</v>
+        <v>63218</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2083267002284727</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1594878963325179</v>
+        <v>0.1592015802146563</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2644070742171226</v>
+        <v>0.264533616162409</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>157</v>
@@ -2305,19 +2305,19 @@
         <v>158701</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>138136</v>
+        <v>136690</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>182107</v>
+        <v>180689</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2276448662328893</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1981467456696608</v>
+        <v>0.1960718141060401</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2612194529561962</v>
+        <v>0.2591853216768759</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>349247</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>331024</v>
+        <v>329839</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>366155</v>
+        <v>366913</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7622786737676736</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7225048196407347</v>
+        <v>0.7199178295315219</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7991813479341521</v>
+        <v>0.8008362463039908</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>181</v>
@@ -2355,19 +2355,19 @@
         <v>189194</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>175792</v>
+        <v>175762</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>200866</v>
+        <v>200934</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7916732997715273</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7355929257828774</v>
+        <v>0.735466383837591</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8405121036674821</v>
+        <v>0.8407984197853438</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>517</v>
@@ -2376,19 +2376,19 @@
         <v>538440</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>515034</v>
+        <v>516452</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>559005</v>
+        <v>560451</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7723551337671107</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7387805470438038</v>
+        <v>0.7408146783231236</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8018532543303392</v>
+        <v>0.8039281858939595</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>471484</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>433770</v>
+        <v>434063</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>507872</v>
+        <v>511482</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2496741540369401</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2297025264149159</v>
+        <v>0.2298580422979298</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2689433153474647</v>
+        <v>0.2708550109995698</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>215</v>
@@ -2501,19 +2501,19 @@
         <v>220121</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>195005</v>
+        <v>194705</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>248755</v>
+        <v>247858</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2162626557167993</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1915862714102577</v>
+        <v>0.1912913492706456</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2443945793325639</v>
+        <v>0.2435125915397502</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>664</v>
@@ -2522,19 +2522,19 @@
         <v>691605</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>650691</v>
+        <v>647331</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>738787</v>
+        <v>740730</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2379725512147826</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2238944680687245</v>
+        <v>0.2227381927725881</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2542072825524936</v>
+        <v>0.2548757393765992</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1416913</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1380525</v>
+        <v>1376915</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1454627</v>
+        <v>1454334</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7503258459630598</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7310566846525353</v>
+        <v>0.72914498900043</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.770297473585084</v>
+        <v>0.7701419577020702</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>759</v>
@@ -2572,19 +2572,19 @@
         <v>797722</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>769088</v>
+        <v>769985</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>822838</v>
+        <v>823138</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7837373442832007</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7556054206674362</v>
+        <v>0.7564874084602501</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8084137285897424</v>
+        <v>0.8087086507293546</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2119</v>
@@ -2593,19 +2593,19 @@
         <v>2214635</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2167453</v>
+        <v>2165510</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2255549</v>
+        <v>2258909</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7620274487852173</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7457927174475063</v>
+        <v>0.7451242606234008</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7761055319312753</v>
+        <v>0.7772618072274119</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>40373</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29952</v>
+        <v>30660</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51052</v>
+        <v>52192</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3208873154277309</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2380597712642225</v>
+        <v>0.2436881519133197</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.405770006625925</v>
+        <v>0.4148273484303509</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -2962,19 +2962,19 @@
         <v>30145</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21695</v>
+        <v>21302</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39875</v>
+        <v>39988</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3485386082984985</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2508382679741308</v>
+        <v>0.2463028477759031</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.461040404874697</v>
+        <v>0.4623468560601764</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -2983,19 +2983,19 @@
         <v>70518</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56187</v>
+        <v>57801</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84610</v>
+        <v>85210</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3321519262282014</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2646525484869314</v>
+        <v>0.2722539637482676</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3985307579621357</v>
+        <v>0.4013550257646505</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>85443</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>74764</v>
+        <v>73624</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>95864</v>
+        <v>95156</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6791126845722691</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5942299933740751</v>
+        <v>0.5851726515696494</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7619402287357775</v>
+        <v>0.7563118480866805</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -3033,19 +3033,19 @@
         <v>56344</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46614</v>
+        <v>46501</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64794</v>
+        <v>65187</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6514613917015014</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.538959595125303</v>
+        <v>0.5376531439398236</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7491617320258692</v>
+        <v>0.7536971522240967</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>132</v>
@@ -3054,19 +3054,19 @@
         <v>141787</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>127695</v>
+        <v>127095</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>156118</v>
+        <v>154504</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6678480737717987</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6014692420378643</v>
+        <v>0.5986449742353495</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7353474515130685</v>
+        <v>0.7277460362517322</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>56590</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44312</v>
+        <v>44314</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70289</v>
+        <v>70428</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3285522323794731</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2572709685565976</v>
+        <v>0.2572829756330268</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4080892165532525</v>
+        <v>0.4088950722816816</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -3179,19 +3179,19 @@
         <v>34315</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24545</v>
+        <v>24392</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44562</v>
+        <v>45260</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2796930118403146</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2000605641351436</v>
+        <v>0.1988142132863019</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3632145087771112</v>
+        <v>0.3688994682921802</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -3200,19 +3200,19 @@
         <v>90905</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75436</v>
+        <v>75762</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107695</v>
+        <v>108751</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.308227085633853</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2557792113820875</v>
+        <v>0.2568813802964478</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3651580840838989</v>
+        <v>0.3687357735616966</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>115650</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>101951</v>
+        <v>101812</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>127928</v>
+        <v>127926</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6714477676205268</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5919107834467473</v>
+        <v>0.5911049277183184</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7427290314434024</v>
+        <v>0.742717024366973</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>80</v>
@@ -3250,19 +3250,19 @@
         <v>88373</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>78126</v>
+        <v>77428</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>98143</v>
+        <v>98296</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7203069881596854</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6367854912228886</v>
+        <v>0.6311005317078197</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7999394358648565</v>
+        <v>0.801185786713698</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>188</v>
@@ -3271,19 +3271,19 @@
         <v>204023</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>187233</v>
+        <v>186177</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>219492</v>
+        <v>219166</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.691772914366147</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6348419159161011</v>
+        <v>0.631264226438304</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7442207886179125</v>
+        <v>0.7431186197035524</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>25305</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17544</v>
+        <v>17283</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35492</v>
+        <v>34392</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1767073718628551</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1225152381720081</v>
+        <v>0.1206903732737187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2478479348949275</v>
+        <v>0.2401663181753256</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -3396,19 +3396,19 @@
         <v>17935</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10945</v>
+        <v>10412</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25749</v>
+        <v>25570</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2177528998239686</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1328840132477589</v>
+        <v>0.1264091246678747</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3126116214130243</v>
+        <v>0.3104406128317805</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -3417,19 +3417,19 @@
         <v>43240</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31875</v>
+        <v>32937</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56977</v>
+        <v>56918</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1916952469076727</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.141312106051376</v>
+        <v>0.1460206839016578</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2525933438394537</v>
+        <v>0.2523323180279439</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>117896</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>107709</v>
+        <v>108809</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>125657</v>
+        <v>125918</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8232926281371449</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7521520651050726</v>
+        <v>0.7598336818246745</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8774847618279918</v>
+        <v>0.8793096267262812</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>61</v>
@@ -3467,19 +3467,19 @@
         <v>64431</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>56617</v>
+        <v>56796</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>71421</v>
+        <v>71954</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7822471001760314</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6873883785869755</v>
+        <v>0.6895593871682196</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.867115986752241</v>
+        <v>0.8735908753321253</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>180</v>
@@ -3488,19 +3488,19 @@
         <v>182327</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>168590</v>
+        <v>168649</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>193692</v>
+        <v>192630</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8083047530923273</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7474066561605465</v>
+        <v>0.7476676819720561</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.858687893948624</v>
+        <v>0.8539793160983423</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>47067</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36426</v>
+        <v>35552</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59331</v>
+        <v>59749</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3298601662310143</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2552858816797264</v>
+        <v>0.2491581777619433</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4158046393181417</v>
+        <v>0.4187326686451102</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -3613,19 +3613,19 @@
         <v>29535</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20357</v>
+        <v>20894</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39504</v>
+        <v>40316</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.288297291469365</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.198707611781695</v>
+        <v>0.2039493890067089</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3856044589456368</v>
+        <v>0.393522383294113</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>72</v>
@@ -3634,19 +3634,19 @@
         <v>76603</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61633</v>
+        <v>61676</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91133</v>
+        <v>90195</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3124902195059169</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2514231164194771</v>
+        <v>0.2515991448991012</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3717618233626317</v>
+        <v>0.3679359052413726</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>95622</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>83358</v>
+        <v>82940</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>106263</v>
+        <v>107137</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6701398337689857</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5841953606818578</v>
+        <v>0.5812673313548895</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7447141183202736</v>
+        <v>0.7508418222380567</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>68</v>
@@ -3684,19 +3684,19 @@
         <v>72913</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>62944</v>
+        <v>62132</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82091</v>
+        <v>81554</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.711702708530635</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6143955410543629</v>
+        <v>0.606477616705887</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8012923882183051</v>
+        <v>0.7960506109932908</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>155</v>
@@ -3705,19 +3705,19 @@
         <v>168534</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>154004</v>
+        <v>154942</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>183504</v>
+        <v>183461</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6875097804940831</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6282381766373681</v>
+        <v>0.6320640947586275</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7485768835805229</v>
+        <v>0.748400855100899</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>16169</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10107</v>
+        <v>9957</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24576</v>
+        <v>25250</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1964367119118451</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1227837267091151</v>
+        <v>0.1209688447693071</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2985625684984751</v>
+        <v>0.3067491459369643</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -3830,19 +3830,19 @@
         <v>11661</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5885</v>
+        <v>6035</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19229</v>
+        <v>19245</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2088979882664939</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1054279955513182</v>
+        <v>0.1081046201665569</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3444830378785282</v>
+        <v>0.3447632862372795</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -3851,19 +3851,19 @@
         <v>27830</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18993</v>
+        <v>19112</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39211</v>
+        <v>39042</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2014723753302798</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1375005142411662</v>
+        <v>0.1383613136842566</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2838614072514862</v>
+        <v>0.2826407938607697</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>66145</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>57738</v>
+        <v>57064</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>72207</v>
+        <v>72357</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8035632880881549</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7014374315015248</v>
+        <v>0.6932508540630341</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8772162732908849</v>
+        <v>0.879031155230693</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -3901,19 +3901,19 @@
         <v>44160</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36592</v>
+        <v>36576</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>49936</v>
+        <v>49786</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.791102011733506</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6555169621214717</v>
+        <v>0.6552367137627204</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8945720044486819</v>
+        <v>0.8918953798334431</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>103</v>
@@ -3922,19 +3922,19 @@
         <v>110304</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>98923</v>
+        <v>99092</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>119141</v>
+        <v>119022</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7985276246697202</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7161385927485137</v>
+        <v>0.7173592061392303</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8624994857588338</v>
+        <v>0.8616386863157434</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>44339</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33300</v>
+        <v>33491</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55364</v>
+        <v>55746</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3780301668093358</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2839137727624831</v>
+        <v>0.2855428724666119</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4720274208659017</v>
+        <v>0.4752812989810529</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -4047,19 +4047,19 @@
         <v>15184</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9286</v>
+        <v>9308</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23237</v>
+        <v>23507</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2746139184648508</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1679504288278628</v>
+        <v>0.1683431969582684</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4202594621343406</v>
+        <v>0.4251494957552303</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>58</v>
@@ -4068,19 +4068,19 @@
         <v>59523</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48212</v>
+        <v>47261</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72802</v>
+        <v>72684</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3448973850493836</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2793584586531116</v>
+        <v>0.2738460513207668</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4218411715818219</v>
+        <v>0.4211568454025663</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>72951</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61926</v>
+        <v>61544</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>83990</v>
+        <v>83799</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6219698331906642</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5279725791340983</v>
+        <v>0.5247187010189488</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7160862272375169</v>
+        <v>0.7144571275333885</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -4118,19 +4118,19 @@
         <v>40108</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>32055</v>
+        <v>31785</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46006</v>
+        <v>45984</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7253860815351493</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.579740537865659</v>
+        <v>0.5748505042447697</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8320495711721372</v>
+        <v>0.8316568030417315</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>102</v>
@@ -4139,19 +4139,19 @@
         <v>113059</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>99780</v>
+        <v>99898</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>124370</v>
+        <v>125321</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6551026149506164</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5781588284181781</v>
+        <v>0.578843154597434</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7206415413468885</v>
+        <v>0.7261539486792333</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>54430</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41466</v>
+        <v>42037</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68818</v>
+        <v>69233</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2001775454443554</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1525017770534595</v>
+        <v>0.1546023404004898</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.253095294657518</v>
+        <v>0.254621361553119</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -4264,19 +4264,19 @@
         <v>46380</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36550</v>
+        <v>34953</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>60839</v>
+        <v>58855</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2546060692418889</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2006411661711301</v>
+        <v>0.1918730333369076</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3339760087818022</v>
+        <v>0.3230856734349929</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>96</v>
@@ -4285,19 +4285,19 @@
         <v>100810</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>84325</v>
+        <v>81926</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>119764</v>
+        <v>120414</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2220132534743824</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1857081145110877</v>
+        <v>0.1804250208382206</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2637544450056571</v>
+        <v>0.2651858594412262</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>217477</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>203089</v>
+        <v>202674</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>230441</v>
+        <v>229870</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7998224545556446</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7469047053424822</v>
+        <v>0.7453786384468811</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8474982229465406</v>
+        <v>0.8453976595995102</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>127</v>
@@ -4335,19 +4335,19 @@
         <v>135785</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>121326</v>
+        <v>123310</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>145615</v>
+        <v>147212</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.745393930758111</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6660239912181977</v>
+        <v>0.6769143265650068</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7993588338288699</v>
+        <v>0.8081269666630924</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>328</v>
@@ -4356,19 +4356,19 @@
         <v>353263</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>334309</v>
+        <v>333659</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>369748</v>
+        <v>372147</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7779867465256176</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.736245554994343</v>
+        <v>0.7348141405587738</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8142918854889123</v>
+        <v>0.8195749791617796</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>47179</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>34880</v>
+        <v>35617</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>61746</v>
+        <v>62060</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1309677343242371</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09682648079107349</v>
+        <v>0.09887186694856942</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1714072586673392</v>
+        <v>0.1722780429372628</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -4481,19 +4481,19 @@
         <v>30672</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21360</v>
+        <v>21396</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44377</v>
+        <v>42122</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1186035214114116</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08259694473084093</v>
+        <v>0.0827341885540774</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1716004351105319</v>
+        <v>0.1628783165623003</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>71</v>
@@ -4502,19 +4502,19 @@
         <v>77851</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>62787</v>
+        <v>61785</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>96091</v>
+        <v>96915</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.125800835292989</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1014587070189517</v>
+        <v>0.0998404251093868</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1552751918074449</v>
+        <v>0.1566067222290578</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>313053</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>298486</v>
+        <v>298172</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>325352</v>
+        <v>324615</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8690322656757629</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.828592741332661</v>
+        <v>0.8277219570627373</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9031735192089266</v>
+        <v>0.9011281330514308</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>208</v>
@@ -4552,19 +4552,19 @@
         <v>227936</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>214231</v>
+        <v>216486</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>237248</v>
+        <v>237212</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8813964785885884</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8283995648894681</v>
+        <v>0.8371216834377</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9174030552691591</v>
+        <v>0.9172658114459226</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>498</v>
@@ -4573,19 +4573,19 @@
         <v>540990</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>522750</v>
+        <v>521926</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>556054</v>
+        <v>557056</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8741991647070111</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8447248081925556</v>
+        <v>0.8433932777709422</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8985412929810487</v>
+        <v>0.9001595748906132</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>331451</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>300897</v>
+        <v>300573</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>367323</v>
+        <v>364272</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2341275001163483</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2125445471512885</v>
+        <v>0.2123155007848798</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2594660172766163</v>
+        <v>0.2573109262362364</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>198</v>
@@ -4698,19 +4698,19 @@
         <v>215828</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>189898</v>
+        <v>189309</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>243746</v>
+        <v>246770</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2281772746960676</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.200763814709158</v>
+        <v>0.2001410953621193</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2576924989807757</v>
+        <v>0.2608902432957688</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>516</v>
@@ -4719,19 +4719,19 @@
         <v>547279</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>505204</v>
+        <v>503884</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>593225</v>
+        <v>592051</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2317442569223014</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2139274417809307</v>
+        <v>0.2133683933722913</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2511997227915221</v>
+        <v>0.2507025203519887</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>1084237</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1048365</v>
+        <v>1051416</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1114791</v>
+        <v>1115115</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7658724998836517</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7405339827233837</v>
+        <v>0.7426890737637634</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7874554528487114</v>
+        <v>0.7876844992151201</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>675</v>
@@ -4769,19 +4769,19 @@
         <v>730050</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>702132</v>
+        <v>699108</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>755980</v>
+        <v>756569</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7718227253039325</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7423075010192244</v>
+        <v>0.7391097567042312</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7992361852908421</v>
+        <v>0.7998589046378808</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1686</v>
@@ -4790,19 +4790,19 @@
         <v>1814287</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1768341</v>
+        <v>1769515</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1856362</v>
+        <v>1857682</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7682557430776986</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7488002772084777</v>
+        <v>0.7492974796480113</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7860725582190691</v>
+        <v>0.7866316066277087</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>56697</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45127</v>
+        <v>44159</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70046</v>
+        <v>69070</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4261314993750436</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3391710894097531</v>
+        <v>0.3318983431696617</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.526463201841641</v>
+        <v>0.5191237378610021</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -5159,19 +5159,19 @@
         <v>40884</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31597</v>
+        <v>31521</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51845</v>
+        <v>52243</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4085562564417367</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3157461308973922</v>
+        <v>0.3149915390033021</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5180903649036495</v>
+        <v>0.5220639923481523</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>88</v>
@@ -5180,19 +5180,19 @@
         <v>97581</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82645</v>
+        <v>80653</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>113578</v>
+        <v>113722</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4185871204577041</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3545177130928742</v>
+        <v>0.3459738804152857</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.487208447791603</v>
+        <v>0.4878261498773326</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>76354</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>63005</v>
+        <v>63981</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>87924</v>
+        <v>88892</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5738685006249564</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4735367981583593</v>
+        <v>0.4808762621389979</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.660828910590247</v>
+        <v>0.6681016568303382</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>58</v>
@@ -5230,19 +5230,19 @@
         <v>59186</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>48225</v>
+        <v>47827</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>68473</v>
+        <v>68549</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5914437435582633</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.481909635096351</v>
+        <v>0.477936007651848</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6842538691026079</v>
+        <v>0.6850084609966981</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>126</v>
@@ -5251,19 +5251,19 @@
         <v>135539</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>119542</v>
+        <v>119398</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>150475</v>
+        <v>152467</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5814128795422959</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5127915522083968</v>
+        <v>0.5121738501226674</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6454822869071257</v>
+        <v>0.6540261195847143</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>82786</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>69767</v>
+        <v>67097</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>97012</v>
+        <v>96602</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.486125611415024</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4096808729918452</v>
+        <v>0.3939994200940604</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5696659345538855</v>
+        <v>0.567257554486963</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -5376,19 +5376,19 @@
         <v>42697</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32763</v>
+        <v>32527</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52489</v>
+        <v>52752</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3755921573185604</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2882042845872975</v>
+        <v>0.2861314479527781</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.461728717734768</v>
+        <v>0.4640368552796658</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>119</v>
@@ -5397,19 +5397,19 @@
         <v>125483</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>109089</v>
+        <v>109136</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>143840</v>
+        <v>142402</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4418774317147997</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3841468803321646</v>
+        <v>0.3843142112367611</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5065204058452863</v>
+        <v>0.5014551783291623</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>87511</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>73285</v>
+        <v>73695</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>100530</v>
+        <v>103200</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.513874388584976</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4303340654461146</v>
+        <v>0.4327424455130369</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5903191270081548</v>
+        <v>0.6060005799059396</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -5447,19 +5447,19 @@
         <v>70983</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>61191</v>
+        <v>60928</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>80917</v>
+        <v>81153</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6244078426814396</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5382712822652318</v>
+        <v>0.5359631447203349</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7117957154127024</v>
+        <v>0.713868552047222</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>147</v>
@@ -5468,19 +5468,19 @@
         <v>158494</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>140137</v>
+        <v>141575</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>174888</v>
+        <v>174841</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5581225682852003</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4934795941547137</v>
+        <v>0.4985448216708377</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6158531196678354</v>
+        <v>0.6156857887632389</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>21254</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13926</v>
+        <v>13879</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29740</v>
+        <v>30869</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1741011961884396</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1140700835403764</v>
+        <v>0.113684572538623</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2436082106916585</v>
+        <v>0.2528579147208457</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -5593,19 +5593,19 @@
         <v>12501</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7212</v>
+        <v>7460</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19955</v>
+        <v>19970</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1500055532706844</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08653949306794435</v>
+        <v>0.08951943814305605</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2394475158875729</v>
+        <v>0.2396311077935389</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -5614,19 +5614,19 @@
         <v>33755</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24441</v>
+        <v>23614</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45447</v>
+        <v>44333</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1643257501872687</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1189824772854413</v>
+        <v>0.1149571979302234</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2212419478349788</v>
+        <v>0.2158172204944886</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>100827</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>92341</v>
+        <v>91212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>108155</v>
+        <v>108202</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8258988038115603</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7563917893083419</v>
+        <v>0.7471420852791544</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8859299164596238</v>
+        <v>0.886315427461377</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>72</v>
@@ -5664,19 +5664,19 @@
         <v>70835</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>63381</v>
+        <v>63366</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>76124</v>
+        <v>75876</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8499944467293156</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7605524841124272</v>
+        <v>0.7603688922064609</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9134605069320557</v>
+        <v>0.9104805618569439</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>178</v>
@@ -5685,19 +5685,19 @@
         <v>171662</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>159970</v>
+        <v>161084</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>180976</v>
+        <v>181803</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8356742498127313</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7787580521650213</v>
+        <v>0.7841827795055115</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8810175227145587</v>
+        <v>0.8850428020697767</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>32465</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22681</v>
+        <v>23739</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42669</v>
+        <v>42990</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2894001129366095</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2021833553318493</v>
+        <v>0.2116178040441546</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3803639449524324</v>
+        <v>0.3832277247176775</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -5810,19 +5810,19 @@
         <v>29935</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21155</v>
+        <v>22167</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38848</v>
+        <v>39722</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3742952260882396</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2645177559654541</v>
+        <v>0.2771655473509631</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4857373140643714</v>
+        <v>0.496668027565508</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -5831,19 +5831,19 @@
         <v>62400</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50033</v>
+        <v>50176</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>75812</v>
+        <v>77292</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3247340702032334</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2603741509722927</v>
+        <v>0.2611183297458514</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3945331681662432</v>
+        <v>0.4022322773899589</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>79715</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>69511</v>
+        <v>69190</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>89499</v>
+        <v>88441</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7105998870633905</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6196360550475674</v>
+        <v>0.616772275282322</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7978166446681506</v>
+        <v>0.788382195955845</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -5881,19 +5881,19 @@
         <v>50042</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41129</v>
+        <v>40255</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>58822</v>
+        <v>57810</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6257047739117604</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5142626859356286</v>
+        <v>0.5033319724344921</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7354822440345459</v>
+        <v>0.722834452649037</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>122</v>
@@ -5902,19 +5902,19 @@
         <v>129757</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>116345</v>
+        <v>114865</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>142124</v>
+        <v>141981</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6752659297967667</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6054668318337566</v>
+        <v>0.5977677226100411</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7396258490277069</v>
+        <v>0.7388816702541486</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>14870</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8241</v>
+        <v>8594</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23316</v>
+        <v>24121</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1859370304219159</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1030519170246735</v>
+        <v>0.1074610274199528</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2915494037387605</v>
+        <v>0.3016109540405584</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -6027,19 +6027,19 @@
         <v>5771</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2030</v>
+        <v>2768</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11396</v>
+        <v>12001</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1041380641323247</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03662607081457293</v>
+        <v>0.04994801938821911</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2056460185534633</v>
+        <v>0.2165612321629197</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -6048,19 +6048,19 @@
         <v>20641</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12963</v>
+        <v>12282</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30331</v>
+        <v>29508</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1524550753908245</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09574310748187846</v>
+        <v>0.09071684316990231</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2240261749983183</v>
+        <v>0.2179445147358695</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>65103</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>56657</v>
+        <v>55852</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>71732</v>
+        <v>71379</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8140629695780841</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.70845059626124</v>
+        <v>0.6983890459594416</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8969480829753266</v>
+        <v>0.8925389725800472</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>53</v>
@@ -6098,19 +6098,19 @@
         <v>49647</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44022</v>
+        <v>43417</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53388</v>
+        <v>52650</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8958619358676753</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7943539814465366</v>
+        <v>0.7834387678370803</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9633739291854271</v>
+        <v>0.9500519806117809</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>118</v>
@@ -6119,19 +6119,19 @@
         <v>114751</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>105061</v>
+        <v>105884</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>122429</v>
+        <v>123110</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8475449246091755</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7759738250016815</v>
+        <v>0.7820554852641302</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9042568925181216</v>
+        <v>0.9092831568300976</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>22434</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15102</v>
+        <v>15000</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31620</v>
+        <v>32555</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2106476007332073</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.141807782964607</v>
+        <v>0.1408475746038249</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2969025010375222</v>
+        <v>0.3056875824910423</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -6244,19 +6244,19 @@
         <v>7427</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3002</v>
+        <v>3180</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13562</v>
+        <v>13662</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09827893676986579</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03973137479163483</v>
+        <v>0.04207957469796646</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1794706561274497</v>
+        <v>0.1807896561456361</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -6265,19 +6265,19 @@
         <v>29860</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20792</v>
+        <v>20456</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41717</v>
+        <v>40660</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1640081045814535</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1142006467790042</v>
+        <v>0.112353301994572</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2291283813299897</v>
+        <v>0.2233227106028647</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>84065</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>74879</v>
+        <v>73944</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>91397</v>
+        <v>91499</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7893523992667927</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7030974989624779</v>
+        <v>0.6943124175089578</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8581922170353933</v>
+        <v>0.8591524253961751</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>70</v>
@@ -6315,19 +6315,19 @@
         <v>68141</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>62006</v>
+        <v>61906</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72566</v>
+        <v>72388</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9017210632301342</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8205293438725503</v>
+        <v>0.819210343854364</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9602686252083652</v>
+        <v>0.9579204253020344</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>150</v>
@@ -6336,19 +6336,19 @@
         <v>152207</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>140350</v>
+        <v>141407</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>161275</v>
+        <v>161611</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8359918954185465</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7708716186700099</v>
+        <v>0.7766772893971354</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8857993532209956</v>
+        <v>0.8876466980054281</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>78342</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>62049</v>
+        <v>61675</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>94896</v>
+        <v>94877</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2216538428138781</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1755556194741063</v>
+        <v>0.1744977651915396</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2684892556197621</v>
+        <v>0.2684337703439296</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -6461,19 +6461,19 @@
         <v>55682</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43486</v>
+        <v>42997</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69953</v>
+        <v>70093</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1977284144134489</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1544223221434774</v>
+        <v>0.1526858714723771</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2484079588197775</v>
+        <v>0.2489020655044025</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>121</v>
@@ -6482,19 +6482,19 @@
         <v>134024</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>113664</v>
+        <v>113960</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>156208</v>
+        <v>156378</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2110443678868986</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1789830734639021</v>
+        <v>0.1794495847116036</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2459759951123258</v>
+        <v>0.2462448338241624</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>275103</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>258549</v>
+        <v>258568</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>291396</v>
+        <v>291770</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7783461571861219</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7315107443802379</v>
+        <v>0.7315662296560704</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8244443805258937</v>
+        <v>0.8255022348084604</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>219</v>
@@ -6532,19 +6532,19 @@
         <v>225925</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>211654</v>
+        <v>211514</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>238121</v>
+        <v>238610</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8022715855865511</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7515920411802225</v>
+        <v>0.7510979344955976</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8455776778565226</v>
+        <v>0.847314128527623</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>457</v>
@@ -6553,19 +6553,19 @@
         <v>501028</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>478844</v>
+        <v>478674</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>521388</v>
+        <v>521092</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7889556321131014</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7540240048876738</v>
+        <v>0.7537551661758375</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8210169265360979</v>
+        <v>0.8205504152883963</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>39273</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28476</v>
+        <v>28520</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>51485</v>
+        <v>52811</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1201663619442642</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08712990503317332</v>
+        <v>0.08726379219279541</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1575295082673702</v>
+        <v>0.1615861267888396</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -6678,19 +6678,19 @@
         <v>21401</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13781</v>
+        <v>13427</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32568</v>
+        <v>31492</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09021878677427259</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05809797403510394</v>
+        <v>0.05660350366657019</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1372976305100031</v>
+        <v>0.1327598460373116</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>57</v>
@@ -6699,19 +6699,19 @@
         <v>60674</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46361</v>
+        <v>46621</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>76214</v>
+        <v>75956</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1075717783153427</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08219523098395554</v>
+        <v>0.08265628949723469</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1351232655115531</v>
+        <v>0.13466499625633</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>287553</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>275341</v>
+        <v>274015</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>298350</v>
+        <v>298306</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8798336380557358</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.84247049173263</v>
+        <v>0.8384138732111605</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9128700949668268</v>
+        <v>0.9127362078072048</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>208</v>
@@ -6749,19 +6749,19 @@
         <v>215806</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>204639</v>
+        <v>205715</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>223426</v>
+        <v>223780</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9097812132257274</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8627023694899969</v>
+        <v>0.8672401539626884</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.941902025964896</v>
+        <v>0.94339649633343</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>484</v>
@@ -6770,19 +6770,19 @@
         <v>503359</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>487819</v>
+        <v>488077</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>517672</v>
+        <v>517412</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8924282216846573</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8648767344884467</v>
+        <v>0.8653350037436697</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9178047690160444</v>
+        <v>0.917343710502765</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>348122</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>315609</v>
+        <v>316875</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>380673</v>
+        <v>381860</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2478878577598876</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2247366512940046</v>
+        <v>0.2256379653639032</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2710664871548627</v>
+        <v>0.2719117447321361</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>207</v>
@@ -6895,19 +6895,19 @@
         <v>216298</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>188208</v>
+        <v>193617</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>240083</v>
+        <v>246536</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2106390575256048</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1832841962573031</v>
+        <v>0.188551470116963</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.23380201608937</v>
+        <v>0.2400859162336727</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>527</v>
@@ -6916,19 +6916,19 @@
         <v>564419</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>520986</v>
+        <v>524312</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>608349</v>
+        <v>608186</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2321552132927825</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2142902127087856</v>
+        <v>0.2156582493256609</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2502240950755107</v>
+        <v>0.2501572597420076</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>1056230</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1023679</v>
+        <v>1022492</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1088743</v>
+        <v>1087477</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7521121422401124</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7289335128451373</v>
+        <v>0.7280882552678638</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7752633487059954</v>
+        <v>0.7743620346360968</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>796</v>
@@ -6966,19 +6966,19 @@
         <v>810566</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>786781</v>
+        <v>780328</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>838656</v>
+        <v>833247</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7893609424743951</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7661979839106303</v>
+        <v>0.7599140837663272</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8167158037426971</v>
+        <v>0.811448529883037</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1782</v>
@@ -6987,19 +6987,19 @@
         <v>1866797</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1822867</v>
+        <v>1823030</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1910230</v>
+        <v>1906904</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7678447867072175</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7497759049244893</v>
+        <v>0.7498427402579927</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7857097872912145</v>
+        <v>0.7843417506743391</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>24771</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16823</v>
+        <v>16966</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34434</v>
+        <v>34636</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1238242097719781</v>
+        <v>0.1238242097719782</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08409488053746636</v>
+        <v>0.08480610216569823</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1721277308574383</v>
+        <v>0.1731329942848996</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -7356,19 +7356,19 @@
         <v>16205</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11509</v>
+        <v>11184</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22762</v>
+        <v>22487</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1071214766323924</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0760760646505108</v>
+        <v>0.07393207434461845</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1504646868665231</v>
+        <v>0.1486474488378387</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -7377,19 +7377,19 @@
         <v>40977</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31524</v>
+        <v>30695</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52259</v>
+        <v>52565</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.116632211071502</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08972614792006346</v>
+        <v>0.08736705133920322</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1487446267050448</v>
+        <v>0.149616711086533</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>175281</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>165618</v>
+        <v>165416</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>183229</v>
+        <v>183086</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8761757902280217</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8278722691425616</v>
+        <v>0.8268670057151001</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9159051194625335</v>
+        <v>0.9151938978343017</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>224</v>
@@ -7427,19 +7427,19 @@
         <v>135074</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>128517</v>
+        <v>128792</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>139770</v>
+        <v>140095</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8928785233676079</v>
+        <v>0.8928785233676076</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8495353131334767</v>
+        <v>0.8513525511621612</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9239239353494892</v>
+        <v>0.9260679256553815</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>397</v>
@@ -7448,19 +7448,19 @@
         <v>310354</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>299072</v>
+        <v>298766</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>319807</v>
+        <v>320636</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8833677889284981</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8512553732949553</v>
+        <v>0.850383288913467</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9102738520799365</v>
+        <v>0.9126329486607969</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>48007</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35167</v>
+        <v>33709</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64755</v>
+        <v>64454</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2085686448634846</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1527851958478253</v>
+        <v>0.146451651442723</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2813352355616017</v>
+        <v>0.2800239343102582</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -7573,19 +7573,19 @@
         <v>45914</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35628</v>
+        <v>36228</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56620</v>
+        <v>57153</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2836625913623335</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2201112821375496</v>
+        <v>0.2238217857224816</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3498026525123891</v>
+        <v>0.3530946204636355</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>90</v>
@@ -7594,19 +7594,19 @@
         <v>93921</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>77355</v>
+        <v>76329</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>114957</v>
+        <v>114544</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2395732012007701</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.197317758903176</v>
+        <v>0.19470104163852</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2932321060110538</v>
+        <v>0.2921796612844309</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>182165</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>165417</v>
+        <v>165718</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>195005</v>
+        <v>196463</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7914313551365155</v>
+        <v>0.7914313551365154</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7186647644383981</v>
+        <v>0.7199760656897417</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8472148041521745</v>
+        <v>0.8535483485572769</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>139</v>
@@ -7644,19 +7644,19 @@
         <v>115948</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>105242</v>
+        <v>104709</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>126234</v>
+        <v>125634</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7163374086376667</v>
+        <v>0.7163374086376666</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.650197347487611</v>
+        <v>0.6469053795363644</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.779888717862451</v>
+        <v>0.7761782142775182</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>263</v>
@@ -7665,19 +7665,19 @@
         <v>298113</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>277077</v>
+        <v>277490</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>314679</v>
+        <v>315705</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7604267987992297</v>
+        <v>0.7604267987992299</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7067678939889462</v>
+        <v>0.707820338715569</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8026822410968241</v>
+        <v>0.8052989583614801</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>48942</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38709</v>
+        <v>38514</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60369</v>
+        <v>60628</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3341778433745999</v>
+        <v>0.3341778433745998</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2643040655372427</v>
+        <v>0.2629734515404193</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4122006012082749</v>
+        <v>0.4139685712425607</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -7790,19 +7790,19 @@
         <v>45826</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36744</v>
+        <v>37994</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55973</v>
+        <v>54764</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3809300972614865</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3054375877208632</v>
+        <v>0.3158312845602613</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4652857412005182</v>
+        <v>0.4552334761440527</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>120</v>
@@ -7811,19 +7811,19 @@
         <v>94768</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>80852</v>
+        <v>79415</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>110428</v>
+        <v>110060</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3552617937941602</v>
+        <v>0.3552617937941603</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3030939663708677</v>
+        <v>0.2977092551050758</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4139672255106916</v>
+        <v>0.4125897021217664</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>97514</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>86087</v>
+        <v>85828</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>107747</v>
+        <v>107942</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6658221566254002</v>
+        <v>0.6658221566254001</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5877993987917253</v>
+        <v>0.5860314287574392</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7356959344627572</v>
+        <v>0.7370265484595806</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>96</v>
@@ -7861,19 +7861,19 @@
         <v>74473</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>64326</v>
+        <v>65535</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>83555</v>
+        <v>82305</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6190699027385135</v>
+        <v>0.6190699027385136</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5347142587994816</v>
+        <v>0.5447665238559473</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6945624122791366</v>
+        <v>0.6841687154397387</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>192</v>
@@ -7882,19 +7882,19 @@
         <v>171987</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>156327</v>
+        <v>156695</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>185903</v>
+        <v>187340</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6447382062058395</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5860327744893081</v>
+        <v>0.5874102978782333</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6969060336291321</v>
+        <v>0.702290744894924</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>54166</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37502</v>
+        <v>37940</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71323</v>
+        <v>73407</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2563919924297119</v>
+        <v>0.2563919924297118</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1775166649478117</v>
+        <v>0.1795888960757541</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.337607335205963</v>
+        <v>0.3474700026539573</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -8007,19 +8007,19 @@
         <v>52853</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41693</v>
+        <v>41145</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65103</v>
+        <v>65441</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2968087619913753</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2341333742337507</v>
+        <v>0.2310582651512955</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3655985526656123</v>
+        <v>0.3674961313585182</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -8028,19 +8028,19 @@
         <v>107019</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85782</v>
+        <v>87431</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>128566</v>
+        <v>130820</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2748777071197907</v>
+        <v>0.2748777071197908</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2203316728230611</v>
+        <v>0.2245655424821444</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3302215911376407</v>
+        <v>0.3360099793603127</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>157095</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>139938</v>
+        <v>137854</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>173759</v>
+        <v>173321</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7436080075702881</v>
+        <v>0.743608007570288</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6623926647940369</v>
+        <v>0.6525299973460428</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8224833350521887</v>
+        <v>0.8204111039242457</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>133</v>
@@ -8078,19 +8078,19 @@
         <v>125219</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>112969</v>
+        <v>112631</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>136379</v>
+        <v>136927</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7031912380086247</v>
+        <v>0.7031912380086248</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6344014473343876</v>
+        <v>0.6325038686414817</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7658666257662492</v>
+        <v>0.7689417348487042</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>225</v>
@@ -8099,19 +8099,19 @@
         <v>282314</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>260767</v>
+        <v>258513</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>303551</v>
+        <v>301902</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7251222928802094</v>
+        <v>0.7251222928802092</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6697784088623593</v>
+        <v>0.6639900206396872</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.779668327176939</v>
+        <v>0.7754344575178557</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>21654</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14844</v>
+        <v>15164</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29895</v>
+        <v>29748</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.161020777585474</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1103797231906689</v>
+        <v>0.112757291325749</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.222296885696737</v>
+        <v>0.2212071855838162</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -8224,19 +8224,19 @@
         <v>13211</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8531</v>
+        <v>8827</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18608</v>
+        <v>18969</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.113678831717991</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07340765538311127</v>
+        <v>0.07595590259461664</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1601172770570591</v>
+        <v>0.1632231559259346</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>54</v>
@@ -8245,19 +8245,19 @@
         <v>34866</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26528</v>
+        <v>26218</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44629</v>
+        <v>44969</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1390743360647942</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.105818537947555</v>
+        <v>0.1045806306023988</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1780194087885809</v>
+        <v>0.1793768250323304</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>112827</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>104586</v>
+        <v>104733</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>119637</v>
+        <v>119317</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8389792224145259</v>
+        <v>0.838979222414526</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7777031143032629</v>
+        <v>0.7787928144161839</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8896202768093311</v>
+        <v>0.8872427086742516</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>206</v>
@@ -8295,19 +8295,19 @@
         <v>103005</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>97608</v>
+        <v>97247</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>107685</v>
+        <v>107389</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8863211682820089</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8398827229429406</v>
+        <v>0.8367768440740657</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9265923446168883</v>
+        <v>0.9240440974053836</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>347</v>
@@ -8316,19 +8316,19 @@
         <v>215831</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>206068</v>
+        <v>205728</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>224169</v>
+        <v>224479</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8609256639352059</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8219805912114192</v>
+        <v>0.8206231749676696</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.894181462052445</v>
+        <v>0.8954193693976014</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>32868</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24113</v>
+        <v>24335</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42822</v>
+        <v>42349</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2456699205371811</v>
+        <v>0.2456699205371812</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1802269664527797</v>
+        <v>0.1818889955647832</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3200692599649138</v>
+        <v>0.3165295589650874</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -8441,19 +8441,19 @@
         <v>30124</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23246</v>
+        <v>23463</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37951</v>
+        <v>38082</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3485117178906638</v>
+        <v>0.3485117178906639</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2689364898813016</v>
+        <v>0.2714495557245326</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4390582073298492</v>
+        <v>0.4405769656102661</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>88</v>
@@ -8462,19 +8462,19 @@
         <v>62993</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51672</v>
+        <v>51946</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>74698</v>
+        <v>74709</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2860341636830941</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2346299947330637</v>
+        <v>0.2358754626821767</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.339185607064197</v>
+        <v>0.339232985785717</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>100923</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>90969</v>
+        <v>91442</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>109678</v>
+        <v>109456</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7543300794628189</v>
+        <v>0.754330079462819</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.679930740035086</v>
+        <v>0.6834704410349126</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8197730335472203</v>
+        <v>0.8181110044352168</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>78</v>
@@ -8512,19 +8512,19 @@
         <v>56313</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>48486</v>
+        <v>48355</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>63191</v>
+        <v>62974</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6514882821093357</v>
+        <v>0.651488282109336</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5609417926701508</v>
+        <v>0.5594230343897336</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.731063510118698</v>
+        <v>0.7285504442754677</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>190</v>
@@ -8533,19 +8533,19 @@
         <v>157235</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>145530</v>
+        <v>145519</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>168556</v>
+        <v>168282</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7139658363169058</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.660814392935803</v>
+        <v>0.6607670142142829</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7653700052669364</v>
+        <v>0.7641245373178234</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>84977</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>65554</v>
+        <v>67262</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>101942</v>
+        <v>105077</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2247579086158076</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1733871615124647</v>
+        <v>0.1779032261120138</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2696296346893133</v>
+        <v>0.2779210386297034</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>103</v>
@@ -8658,19 +8658,19 @@
         <v>80717</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>67980</v>
+        <v>67346</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>96127</v>
+        <v>96088</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2304256473828534</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1940636638429237</v>
+        <v>0.1922528325810718</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2744168202507097</v>
+        <v>0.2743033934969513</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>172</v>
@@ -8679,19 +8679,19 @@
         <v>165694</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>142529</v>
+        <v>142877</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>188041</v>
+        <v>188464</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2274836791527175</v>
+        <v>0.2274836791527176</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1956802047167365</v>
+        <v>0.196157911737558</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2581634931232085</v>
+        <v>0.2587442623392974</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>293104</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>276139</v>
+        <v>273004</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>312527</v>
+        <v>310819</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7752420913841925</v>
+        <v>0.7752420913841923</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7303703653106867</v>
+        <v>0.7220789613702968</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8266128384875352</v>
+        <v>0.8220967738879863</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>329</v>
@@ -8729,19 +8729,19 @@
         <v>269580</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>254170</v>
+        <v>254209</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>282317</v>
+        <v>282951</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7695743526171466</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7255831797492904</v>
+        <v>0.7256966065030488</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8059363361570765</v>
+        <v>0.8077471674189284</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>564</v>
@@ -8750,19 +8750,19 @@
         <v>562684</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>540337</v>
+        <v>539914</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>585849</v>
+        <v>585501</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7725163208472823</v>
+        <v>0.7725163208472824</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7418365068767915</v>
+        <v>0.7412557376607021</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8043197952832631</v>
+        <v>0.8038420882624419</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>65956</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>50332</v>
+        <v>51928</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>82719</v>
+        <v>83927</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1461175710640298</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1115041846127565</v>
+        <v>0.1150388958282795</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1832541707848283</v>
+        <v>0.1859303848564875</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>69</v>
@@ -8875,19 +8875,19 @@
         <v>57483</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46330</v>
+        <v>46819</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70499</v>
+        <v>71578</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1853290265355617</v>
+        <v>0.1853290265355618</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1493700666357304</v>
+        <v>0.1509482102593895</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2272921779282231</v>
+        <v>0.2307708340805633</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>125</v>
@@ -8896,19 +8896,19 @@
         <v>123439</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>102687</v>
+        <v>104420</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>146755</v>
+        <v>147558</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1620876631720308</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1348378336660293</v>
+        <v>0.1371138121314301</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.192703478651633</v>
+        <v>0.1937577209612034</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>385435</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>368672</v>
+        <v>367464</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>401059</v>
+        <v>399463</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.85388242893597</v>
+        <v>0.8538824289359703</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8167458292151726</v>
+        <v>0.8140696151435125</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8884958153872436</v>
+        <v>0.8849611041717205</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>303</v>
@@ -8946,19 +8946,19 @@
         <v>252686</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>239670</v>
+        <v>238591</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>263839</v>
+        <v>263350</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8146709734644382</v>
+        <v>0.8146709734644383</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7727078220717768</v>
+        <v>0.7692291659194367</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8506299333642694</v>
+        <v>0.8490517897406105</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>627</v>
@@ -8967,19 +8967,19 @@
         <v>638121</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>614805</v>
+        <v>614002</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>658873</v>
+        <v>657140</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8379123368279692</v>
+        <v>0.8379123368279693</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8072965213483669</v>
+        <v>0.8062422790387963</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8651621663339707</v>
+        <v>0.86288618786857</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>381341</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>340979</v>
+        <v>343351</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>417833</v>
+        <v>416617</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2022296747021927</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1808250150466162</v>
+        <v>0.1820829065135046</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2215816824503264</v>
+        <v>0.2209367630225918</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>468</v>
@@ -9092,19 +9092,19 @@
         <v>342335</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>310991</v>
+        <v>312328</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>370459</v>
+        <v>370169</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2321493092564317</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2108939069838283</v>
+        <v>0.2118009173695616</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.25122116085745</v>
+        <v>0.2510245173414424</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>801</v>
@@ -9113,19 +9113,19 @@
         <v>723676</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>679652</v>
+        <v>673755</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>772347</v>
+        <v>771416</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2153595191893946</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.202258302193462</v>
+        <v>0.2005034921627875</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2298435735211385</v>
+        <v>0.2295663546316475</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>1504344</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1467852</v>
+        <v>1469068</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1544706</v>
+        <v>1542334</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.7977703252978072</v>
+        <v>0.7977703252978073</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7784183175496736</v>
+        <v>0.7790632369774083</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8191749849533839</v>
+        <v>0.8179170934864953</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1508</v>
@@ -9163,19 +9163,19 @@
         <v>1132297</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1104173</v>
+        <v>1104463</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1163641</v>
+        <v>1162304</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.7678506907435685</v>
+        <v>0.7678506907435682</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7487788391425497</v>
+        <v>0.7489754826585577</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7891060930161716</v>
+        <v>0.7881990826304385</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2805</v>
@@ -9184,19 +9184,19 @@
         <v>2636641</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2587970</v>
+        <v>2588901</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2680665</v>
+        <v>2686562</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.7846404808106056</v>
+        <v>0.7846404808106053</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7701564264788616</v>
+        <v>0.7704336453683525</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7977416978065381</v>
+        <v>0.7994965078372124</v>
       </c>
     </row>
     <row r="30">
